--- a/Gráfico.xlsx
+++ b/Gráfico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\FATEC\2SEM\Estrutura de Dados\p3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD2B84F-A32D-4C70-B640-4B24D269446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FE801-B607-4F28-8450-BC02C6CB4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{850A9BDB-037C-4537-8ED4-32E37CAC1EEA}"/>
   </bookViews>
@@ -131,37 +131,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1501,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97510325-D369-4245-880F-2B4519DA3B53}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
